--- a/LoginGmail.xlsx
+++ b/LoginGmail.xlsx
@@ -43,7 +43,7 @@
     <t>navigateURL</t>
   </si>
   <si>
-    <t>https://accounts.google.com/signin</t>
+    <t>https://accounts.google.com/signin/v2/identifier?hl=vi&amp;continue=https%3A%2F%2Fmail.google.com%2Fmail&amp;service=mail&amp;ec=GAlAFw&amp;flowName=GlifWebSignIn&amp;flowEntry=AddSession</t>
   </si>
   <si>
     <t xml:space="preserve">Verify text Đăng nhập </t>
@@ -202,7 +202,7 @@
     <t>InputInvalid</t>
   </si>
   <si>
-    <t>hoaihoet@gmail</t>
+    <t>@jhfjdj.cdjkds</t>
   </si>
   <si>
     <t>Verify khi nhập invalid</t>
@@ -1170,7 +1170,7 @@
       <c r="C17" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="9" t="s">
         <v>63</v>
       </c>
       <c r="E17" s="10" t="s">
